--- a/listado.xlsx
+++ b/listado.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacol\Desktop\Master\TFM_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{770FD685-540A-4624-820A-5F7269FFD25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6322D3A1-AABC-4D0F-AA4D-E3DCDD0903CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,25 +36,268 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
   <si>
     <t>Material</t>
   </si>
   <si>
-    <t>Numero de unidades</t>
-  </si>
-  <si>
-    <t>medidas</t>
-  </si>
-  <si>
-    <t>material</t>
+    <t>Ventiladores</t>
+  </si>
+  <si>
+    <t>Soporte ventilador</t>
+  </si>
+  <si>
+    <t>PETG</t>
+  </si>
+  <si>
+    <t>Tubo de enfriamiento</t>
+  </si>
+  <si>
+    <t>70mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pie </t>
+  </si>
+  <si>
+    <t>Impreso 3D</t>
+  </si>
+  <si>
+    <t>Medidas</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Tornillos</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>310x30x30mm</t>
+  </si>
+  <si>
+    <t>Aluminio</t>
+  </si>
+  <si>
+    <t>Número de unidades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puntos guía </t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>Motor paso a paso</t>
+  </si>
+  <si>
+    <t>Sujecion motor paso a paso</t>
+  </si>
+  <si>
+    <t>Rodamiento patines</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 22, R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 8 mm</t>
+    </r>
+  </si>
+  <si>
+    <t>Soporte rodamiento pivote</t>
+  </si>
+  <si>
+    <t>Guia rodamiento</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ext</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 24, R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">int </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22 mm</t>
+    </r>
+  </si>
+  <si>
+    <t>Soporte segunda guía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soporte primera guía </t>
+  </si>
+  <si>
+    <t>Tuercas</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>Varilla roscada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornillos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8 </t>
+  </si>
+  <si>
+    <t>M8 x 120mm</t>
+  </si>
+  <si>
+    <t>M5 x 140 mm</t>
+  </si>
+  <si>
+    <t>Sensor espesor</t>
+  </si>
+  <si>
+    <t>Soporte sensor espesor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodamientos pequeños </t>
+  </si>
+  <si>
+    <t>Muelle de boligrafo</t>
+  </si>
+  <si>
+    <t>Sensor efecto hall lineal</t>
+  </si>
+  <si>
+    <t>Iman</t>
+  </si>
+  <si>
+    <t>Tornillo</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>623ZZ</t>
+  </si>
+  <si>
+    <t>25 x 6 x 2 mm</t>
+  </si>
+  <si>
+    <t>Pies</t>
+  </si>
+  <si>
+    <t>Pieza A soporte</t>
+  </si>
+  <si>
+    <t>Pieza C soporte</t>
+  </si>
+  <si>
+    <t>Pieza B soporte</t>
+  </si>
+  <si>
+    <t>Engranaje</t>
+  </si>
+  <si>
+    <t>Bobinba vacia</t>
+  </si>
+  <si>
+    <t>Pasante vobina</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M8 x 160mm</t>
+  </si>
+  <si>
+    <t>Z = 58</t>
+  </si>
+  <si>
+    <t>Z = 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arandelas </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +305,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -79,12 +349,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,33 +847,1705 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C4" s="3">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C5" s="3">
         <v>3</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="13" t="str">
+        <f>IF(E12 = "PETG","Si","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="16" t="str">
+        <f t="shared" ref="F13:F76" si="0">IF(E13 = "PETG","Si","")</f>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="15">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="15">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="15">
+        <v>1</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="15">
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+      <c r="D24" s="17"/>
+      <c r="E24" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="15">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="15">
+        <v>4</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="15">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="15">
+        <v>1</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="15">
+        <v>1</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="16" t="str">
+        <f>IF(E30 = "PETG","Si","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="21">
+        <v>8</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="12">
+        <v>4</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="15">
+        <v>1</v>
+      </c>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="15">
+        <v>1</v>
+      </c>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1</v>
+      </c>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="15">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="15">
+        <v>1</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="15">
+        <v>1</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="15">
+        <v>1</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="15">
+        <v>2</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="15">
+        <v>1</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="15">
+        <v>4</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="15">
+        <v>19</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="15">
+        <v>10</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="22" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1" t="str">
+        <f t="shared" ref="F77:F103" si="1">IF(E77 = "PETG","Si","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+    </row>
+    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+    </row>
+    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+    </row>
+    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+    </row>
+    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+    </row>
+    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+    </row>
+    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+    </row>
+    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+    </row>
+    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+    </row>
+    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+    </row>
+    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+    </row>
+    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+    </row>
+    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+    </row>
+    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+    </row>
+    <row r="128" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+    </row>
+    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+    </row>
+    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="F161" s="1"/>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="F163" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/listado.xlsx
+++ b/listado.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pacol\Desktop\Master\TFM_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6322D3A1-AABC-4D0F-AA4D-E3DCDD0903CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6825C7E6-7D25-43D6-8362-2AA3587C54D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>Material</t>
   </si>
@@ -99,6 +100,132 @@
   </si>
   <si>
     <t>Rodamiento patines</t>
+  </si>
+  <si>
+    <t>Soporte rodamiento pivote</t>
+  </si>
+  <si>
+    <t>Guia rodamiento</t>
+  </si>
+  <si>
+    <t>Soporte segunda guía</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soporte primera guía </t>
+  </si>
+  <si>
+    <t>Tuercas</t>
+  </si>
+  <si>
+    <t>M5</t>
+  </si>
+  <si>
+    <t>Varilla roscada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornillos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M8 </t>
+  </si>
+  <si>
+    <t>M8 x 120mm</t>
+  </si>
+  <si>
+    <t>M5 x 140 mm</t>
+  </si>
+  <si>
+    <t>Sensor espesor</t>
+  </si>
+  <si>
+    <t>Soporte sensor espesor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodamientos pequeños </t>
+  </si>
+  <si>
+    <t>Muelle de boligrafo</t>
+  </si>
+  <si>
+    <t>Sensor efecto hall lineal</t>
+  </si>
+  <si>
+    <t>Iman</t>
+  </si>
+  <si>
+    <t>Tornillo</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>623ZZ</t>
+  </si>
+  <si>
+    <t>25 x 6 x 2 mm</t>
+  </si>
+  <si>
+    <t>Pies</t>
+  </si>
+  <si>
+    <t>Pieza A soporte</t>
+  </si>
+  <si>
+    <t>Pieza C soporte</t>
+  </si>
+  <si>
+    <t>Pieza B soporte</t>
+  </si>
+  <si>
+    <t>Engranaje</t>
+  </si>
+  <si>
+    <t>Bobinba vacia</t>
+  </si>
+  <si>
+    <t>Pasante vobina</t>
+  </si>
+  <si>
+    <t>M8</t>
+  </si>
+  <si>
+    <t>M8 x 160mm</t>
+  </si>
+  <si>
+    <t>Z = 58</t>
+  </si>
+  <si>
+    <t>Z = 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arandelas </t>
+  </si>
+  <si>
+    <t>Reles</t>
+  </si>
+  <si>
+    <t>Cables</t>
+  </si>
+  <si>
+    <t>Precio/u</t>
+  </si>
+  <si>
+    <t>Precio total aproximado</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Servo</t>
+  </si>
+  <si>
+    <t>Extension motor paso a paso</t>
+  </si>
+  <si>
+    <t>M5 a M8</t>
   </si>
   <si>
     <r>
@@ -106,6 +233,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -116,6 +244,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -126,6 +255,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -136,6 +266,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -146,17 +277,12 @@
     </r>
   </si>
   <si>
-    <t>Soporte rodamiento pivote</t>
-  </si>
-  <si>
-    <t>Guia rodamiento</t>
-  </si>
-  <si>
     <r>
       <t>R</t>
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -167,6 +293,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -177,6 +304,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -187,6 +315,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -197,107 +326,17 @@
     </r>
   </si>
   <si>
-    <t>Soporte segunda guía</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soporte primera guía </t>
-  </si>
-  <si>
-    <t>Tuercas</t>
-  </si>
-  <si>
-    <t>M5</t>
-  </si>
-  <si>
-    <t>Varilla roscada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tornillos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">M8 </t>
-  </si>
-  <si>
-    <t>M8 x 120mm</t>
-  </si>
-  <si>
-    <t>M5 x 140 mm</t>
-  </si>
-  <si>
-    <t>Sensor espesor</t>
-  </si>
-  <si>
-    <t>Soporte sensor espesor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodamientos pequeños </t>
-  </si>
-  <si>
-    <t>Muelle de boligrafo</t>
-  </si>
-  <si>
-    <t>Sensor efecto hall lineal</t>
-  </si>
-  <si>
-    <t>Iman</t>
-  </si>
-  <si>
-    <t>Tornillo</t>
-  </si>
-  <si>
-    <t>M6</t>
-  </si>
-  <si>
-    <t>623ZZ</t>
-  </si>
-  <si>
-    <t>25 x 6 x 2 mm</t>
-  </si>
-  <si>
-    <t>Pies</t>
-  </si>
-  <si>
-    <t>Pieza A soporte</t>
-  </si>
-  <si>
-    <t>Pieza C soporte</t>
-  </si>
-  <si>
-    <t>Pieza B soporte</t>
-  </si>
-  <si>
-    <t>Engranaje</t>
-  </si>
-  <si>
-    <t>Bobinba vacia</t>
-  </si>
-  <si>
-    <t>Pasante vobina</t>
-  </si>
-  <si>
-    <t>M8</t>
-  </si>
-  <si>
-    <t>M8 x 160mm</t>
-  </si>
-  <si>
-    <t>Z = 58</t>
-  </si>
-  <si>
-    <t>Z = 13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tornillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arandelas </t>
+    <t xml:space="preserve">Sensor Óptico </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,14 +353,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -337,6 +384,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -502,36 +567,75 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -848,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F163"/>
+  <dimension ref="B2:L161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:F52"/>
+    <sheetView tabSelected="1" topLeftCell="C27" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,10 +963,14 @@
     <col min="2" max="2" width="26.140625" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
@@ -878,8 +986,21 @@
       <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,8 +1012,22 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="28">
+        <v>3</v>
+      </c>
+      <c r="J4" s="28">
+        <v>5</v>
+      </c>
+      <c r="K4" s="29">
+        <f>J4*I4</f>
+        <v>15</v>
+      </c>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
@@ -908,8 +1043,22 @@
       <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16">
+        <v>40</v>
+      </c>
+      <c r="K5" s="17">
+        <f>J5*I5</f>
+        <v>40</v>
+      </c>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -923,8 +1072,17 @@
         <v>14</v>
       </c>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20">
+        <v>3.33</v>
+      </c>
+      <c r="L6" s="11"/>
+    </row>
+    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -938,8 +1096,18 @@
       <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="34">
+        <f>SUM(K4:K6)</f>
+        <v>58.33</v>
+      </c>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
@@ -951,22 +1119,27 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
@@ -982,321 +1155,384 @@
       <c r="F11" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="H11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="22">
         <v>2</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="13" t="str">
+      <c r="F12" s="23" t="str">
         <f>IF(E12 = "PETG","Si","")</f>
         <v/>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="H12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16">
+        <v>8</v>
+      </c>
+      <c r="K12" s="17">
+        <f>J12*I12</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" ref="F13:F74" si="0">IF(E13 = "PETG","Si","")</f>
+        <v>Si</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="17">
+        <f>J13*I13</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1</v>
+      </c>
+      <c r="J14" s="16">
+        <v>8</v>
+      </c>
+      <c r="K14" s="17">
+        <f>J14*I14</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="17">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="35">
+        <f>SUM(K12:K15)</f>
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15">
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15" t="s">
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="24"/>
+      <c r="E23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="16" t="str">
-        <f t="shared" ref="F13:F76" si="0">IF(E13 = "PETG","Si","")</f>
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="0"/>
         <v>Si</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="15">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3">
         <v>1</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>Si</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="15">
-        <v>2</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="15">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3">
         <v>1</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="15">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3">
         <v>1</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="D27" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="24"/>
+      <c r="F27" s="25"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="15">
-        <v>1</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="15">
-        <v>1</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="15">
-        <v>1</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="15">
-        <v>2</v>
-      </c>
-      <c r="D22" s="15" t="s">
+      <c r="D28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="4" t="str">
+        <f>IF(E28 = "PETG","Si","")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="15">
-        <v>1</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="15">
-        <v>1</v>
-      </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="15">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="15">
-        <v>4</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="15"/>
-      <c r="F26" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="15">
-        <v>1</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="15">
-        <v>1</v>
-      </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="15">
-        <v>1</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="C29" s="6">
+        <v>8</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="15">
-        <v>1</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16" t="str">
-        <f>IF(E30 = "PETG","Si","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="21">
-        <v>8</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22" t="str">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1311,7 +1547,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1321,7 +1557,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1331,285 +1567,337 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8" t="s">
+    <row r="35" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F35" s="10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="11" t="s">
+      <c r="H35" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="22">
+        <v>4</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="23" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="16">
+        <v>1</v>
+      </c>
+      <c r="J36" s="16">
+        <v>8</v>
+      </c>
+      <c r="K36" s="17">
+        <f>J36*I36</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="35">
+        <f>K36+K37</f>
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="12">
+      <c r="C39" s="3">
+        <v>1</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E40" s="24"/>
+      <c r="F40" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F41" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>Si</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="3">
         <v>4</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="15">
-        <v>1</v>
-      </c>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="15">
-        <v>1</v>
-      </c>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="15">
-        <v>1</v>
-      </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="15">
-        <v>1</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
+      <c r="D47" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="3">
         <v>19</v>
       </c>
-      <c r="C43" s="15">
-        <v>1</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="15">
-        <v>1</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="D48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="3">
+        <v>10</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="15">
-        <v>1</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="15">
-        <v>2</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="15" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F46" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="15">
-        <v>1</v>
-      </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v>Si</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="15">
-        <v>4</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F49" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="15">
-        <v>19</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="16" t="str">
+      <c r="F50" s="7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="15">
-        <v>10</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="22" t="str">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -1840,7 +2128,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F75:F101" si="1">IF(E75 = "PETG","Si","")</f>
         <v/>
       </c>
     </row>
@@ -1850,7 +2138,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -1860,7 +2148,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="str">
-        <f t="shared" ref="F77:F103" si="1">IF(E77 = "PETG","Si","")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
@@ -2109,20 +2397,14 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F102" s="1"/>
     </row>
     <row r="103" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="F103" s="1"/>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
@@ -2530,20 +2812,6 @@
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
     </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-      <c r="F162" s="1"/>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
